--- a/biology/Botanique/Corylopsis_glabrescens/Corylopsis_glabrescens.xlsx
+++ b/biology/Botanique/Corylopsis_glabrescens/Corylopsis_glabrescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corylopsis glabrescens est un petit arbuste de la famille des Hamamelidacées, originaire du Japon et de Corée.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc ne dépassant pas 5 m de haut dans sa plus grande taille (il reste généralement plus petit).
 Les feuilles de cette espèces sont glabres, particularité à l'origine de l'épithète spécifique.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce originaire du Japon et de Corée est maintenant répandue dans toutes les régions tempérées.
 </t>
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est appréciée en arbuste d'ornement pour sa floraison en fin d'hivers, son léger parfum et son faible développement. Sa culture reste simple, avec comme principale exigence un sol acide, assez riche, mais sans contrainte sur l'ensoleillement et une bonne résistance au froid. Elle est maintenant couramment commercialisée dans quelques variétés horticoles ('Chimes', 'cholipo', 'Lemon drop'...).
 			Floraison
